--- a/data/trans_orig/P24B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7940</v>
+        <v>8420</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23181</v>
+        <v>23894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0710243297104224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0385316168366969</v>
+        <v>0.04085993073495087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.112493397939428</v>
+        <v>0.1159553013944768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>20595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12682</v>
+        <v>13623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29772</v>
+        <v>29576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1219446027524548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07509264213647654</v>
+        <v>0.08066513419896712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1762875031474526</v>
+        <v>0.1751221902934345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -785,19 +785,19 @@
         <v>35230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25751</v>
+        <v>24984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47679</v>
+        <v>47527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09395996260751398</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06867954000980897</v>
+        <v>0.06663204574649367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1271604480243828</v>
+        <v>0.126756442943525</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>140352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127577</v>
+        <v>126150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153404</v>
+        <v>153422</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6811066705183551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.619114337258839</v>
+        <v>0.6121862084099507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7444498807917252</v>
+        <v>0.7445372672294327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -835,19 +835,19 @@
         <v>96707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83763</v>
+        <v>85478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108703</v>
+        <v>110026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5726180009356302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4959740337410024</v>
+        <v>0.5061291693705904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6436477819642512</v>
+        <v>0.6514819450436873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -856,19 +856,19 @@
         <v>237059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217330</v>
+        <v>218771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>253753</v>
+        <v>254372</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6322409408120493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5796237811189516</v>
+        <v>0.5834672886258472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.676765288634422</v>
+        <v>0.6784161654386741</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>51077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39842</v>
+        <v>40620</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63510</v>
+        <v>64968</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2478689997712226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1933493341283542</v>
+        <v>0.1971220127799543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3082060682477883</v>
+        <v>0.3152831040255957</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -906,19 +906,19 @@
         <v>51584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40693</v>
+        <v>40417</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63562</v>
+        <v>63219</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3054373963119151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2409515754819211</v>
+        <v>0.2393157577315428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3763595331481212</v>
+        <v>0.3743285623680318</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -927,19 +927,19 @@
         <v>102661</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86598</v>
+        <v>87434</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>120526</v>
+        <v>121640</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2737990965804368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2309597480527616</v>
+        <v>0.2331893197674402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.321444779997015</v>
+        <v>0.3244159941138981</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>53830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42202</v>
+        <v>41620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68214</v>
+        <v>68718</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1349140323701752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1057722066506935</v>
+        <v>0.1043115822950099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1709664829607364</v>
+        <v>0.1722274142546209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -1052,19 +1052,19 @@
         <v>51375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38123</v>
+        <v>38464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64067</v>
+        <v>64534</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2196338046287303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1629831077421927</v>
+        <v>0.1644414219940822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2738964507611844</v>
+        <v>0.275894337552641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>102</v>
@@ -1073,19 +1073,19 @@
         <v>105204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88081</v>
+        <v>87362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126642</v>
+        <v>124525</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1662249708899513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1391696176056569</v>
+        <v>0.1380333344543733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2000965794011485</v>
+        <v>0.1967523922431176</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>289991</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>271174</v>
+        <v>269347</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>306051</v>
+        <v>307954</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7268062537599017</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6796455437601371</v>
+        <v>0.675065927250905</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7670573540682581</v>
+        <v>0.7718289712916122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -1123,19 +1123,19 @@
         <v>134675</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>119150</v>
+        <v>119454</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>148524</v>
+        <v>150862</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5757554694584305</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5093834998435446</v>
+        <v>0.5106821717871264</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6349635435354657</v>
+        <v>0.6449561076835038</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>412</v>
@@ -1144,19 +1144,19 @@
         <v>424665</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>400231</v>
+        <v>402078</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>449793</v>
+        <v>448009</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.670980539236103</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6323741669766373</v>
+        <v>0.6352925452759903</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7106837361313914</v>
+        <v>0.7078641226516499</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>55173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42253</v>
+        <v>41963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70373</v>
+        <v>71673</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1382797138699232</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.105899706205045</v>
+        <v>0.1051717459640313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.176375601606867</v>
+        <v>0.1796347632745625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1194,19 +1194,19 @@
         <v>47860</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36654</v>
+        <v>36135</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62741</v>
+        <v>61588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2046107259128393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1567015150442077</v>
+        <v>0.1544804120966716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2682252825212186</v>
+        <v>0.2632967198370481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1215,19 +1215,19 @@
         <v>103033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84785</v>
+        <v>86139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123121</v>
+        <v>124133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1627944898739457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1339615025496552</v>
+        <v>0.1361017047803539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1945344371452747</v>
+        <v>0.1961331053187075</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>54503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42294</v>
+        <v>41881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70171</v>
+        <v>70194</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1602257182675238</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1243347481739249</v>
+        <v>0.1231198942214023</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2062875660783805</v>
+        <v>0.2063558852838037</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1340,19 +1340,19 @@
         <v>45840</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34101</v>
+        <v>33084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59464</v>
+        <v>59610</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1780455051614053</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.132451005078396</v>
+        <v>0.1285015994425174</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2309643391345159</v>
+        <v>0.2315307052840488</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -1361,19 +1361,19 @@
         <v>100342</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>82788</v>
+        <v>82217</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>119156</v>
+        <v>119704</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1679026370984856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1385292191086114</v>
+        <v>0.137573998610265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1993834794452294</v>
+        <v>0.2003004127207762</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>240489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221351</v>
+        <v>222256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257053</v>
+        <v>257535</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.706986987772909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6507248220208683</v>
+        <v>0.653384977346815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7556817813702674</v>
+        <v>0.7570980370903885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -1411,19 +1411,19 @@
         <v>166627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152467</v>
+        <v>150422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182751</v>
+        <v>181702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6471926515254388</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5921936466144958</v>
+        <v>0.5842497276918652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.709818295374684</v>
+        <v>0.7057457287520805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -1432,19 +1432,19 @@
         <v>407116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>382727</v>
+        <v>381391</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>429078</v>
+        <v>430090</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6812270688324263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6404157949414313</v>
+        <v>0.6381808165977233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7179750959574857</v>
+        <v>0.719668332084781</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>45169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33035</v>
+        <v>32999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59554</v>
+        <v>59056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1327872939595671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09711459698274964</v>
+        <v>0.09700961634737554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1750746829059809</v>
+        <v>0.1736115232282266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -1482,19 +1482,19 @@
         <v>44994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33693</v>
+        <v>33072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56976</v>
+        <v>58021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1747618433131559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.130868197583582</v>
+        <v>0.1284536334606418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2212979788414901</v>
+        <v>0.2253587827857051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -1503,19 +1503,19 @@
         <v>90163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72955</v>
+        <v>73158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>108364</v>
+        <v>108357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1508702940690881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1220749921877809</v>
+        <v>0.1224158622991173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1813258718347254</v>
+        <v>0.1813133047624197</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>31309</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21588</v>
+        <v>21299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43050</v>
+        <v>42335</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1339802484303906</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09238128579326262</v>
+        <v>0.09114310562031855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1842216087014762</v>
+        <v>0.1811617173053732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1628,19 +1628,19 @@
         <v>29545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20751</v>
+        <v>20419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40024</v>
+        <v>41214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2038038205919631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1431411032599061</v>
+        <v>0.1408558814086893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2760912741348076</v>
+        <v>0.2843003266035056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1649,19 +1649,19 @@
         <v>60854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46777</v>
+        <v>46697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78878</v>
+        <v>76840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.160712143862986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1235347293754847</v>
+        <v>0.1233252968668567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2083126394067695</v>
+        <v>0.2029304464751627</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>175486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162099</v>
+        <v>161375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189721</v>
+        <v>187569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7509490435186439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6936657028943012</v>
+        <v>0.6905657954698213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8118675128219067</v>
+        <v>0.8026593844331438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -1699,19 +1699,19 @@
         <v>92545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80935</v>
+        <v>81405</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102939</v>
+        <v>104155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6383891260475716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5583006117662649</v>
+        <v>0.561548395804493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7100917828774934</v>
+        <v>0.718476689017043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>254</v>
@@ -1720,19 +1720,19 @@
         <v>268031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248076</v>
+        <v>247070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285278</v>
+        <v>284510</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7078555744996777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6551563983505612</v>
+        <v>0.6524983015865626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7534033406236488</v>
+        <v>0.7513758700494474</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>26890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18044</v>
+        <v>17440</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38365</v>
+        <v>37133</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1150707080509656</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07721452406752508</v>
+        <v>0.07463236680011343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1641749144048993</v>
+        <v>0.1589020579192803</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1770,19 +1770,19 @@
         <v>22877</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14386</v>
+        <v>14269</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31769</v>
+        <v>32725</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1578070533604653</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09923689341574957</v>
+        <v>0.098427113337447</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2191472551991555</v>
+        <v>0.2257409290631679</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -1791,19 +1791,19 @@
         <v>49767</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37778</v>
+        <v>38459</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63429</v>
+        <v>65795</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1314322816373363</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09976951657197572</v>
+        <v>0.1015671381022264</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1675123360632698</v>
+        <v>0.1737612605382108</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>30063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21370</v>
+        <v>20914</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40903</v>
+        <v>40499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2336030558937004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.166055256323468</v>
+        <v>0.1625125547100113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3178398609879634</v>
+        <v>0.3147001384725595</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1916,19 +1916,19 @@
         <v>8790</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4591</v>
+        <v>4689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15089</v>
+        <v>15205</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1874710157771229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09791336527937382</v>
+        <v>0.1000130435713908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3218106385384661</v>
+        <v>0.3242882299745113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1937,19 +1937,19 @@
         <v>38853</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27429</v>
+        <v>29098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50274</v>
+        <v>51104</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2212835883314741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1562238064812827</v>
+        <v>0.1657262262076134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2863344181510941</v>
+        <v>0.2910609763891481</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>89430</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78327</v>
+        <v>78311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>99271</v>
+        <v>99100</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6949199976545235</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6086428732931949</v>
+        <v>0.6085171254134563</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7713908315413206</v>
+        <v>0.7700611377328412</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -1987,19 +1987,19 @@
         <v>30542</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23253</v>
+        <v>23613</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36784</v>
+        <v>36611</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6513904785851554</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4959344771173517</v>
+        <v>0.5035969835277286</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7845020281431688</v>
+        <v>0.7808223261269857</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -2008,19 +2008,19 @@
         <v>119972</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108204</v>
+        <v>106973</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>133353</v>
+        <v>131794</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6832955280490337</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.61627454436578</v>
+        <v>0.6092625825616311</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7595103258735971</v>
+        <v>0.7506266845234347</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>9198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4453</v>
+        <v>4630</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15786</v>
+        <v>15269</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07147694645177616</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03459877863970871</v>
+        <v>0.03597833172953568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1226688128491192</v>
+        <v>0.1186499190438806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2058,19 +2058,19 @@
         <v>7555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3453</v>
+        <v>3162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14152</v>
+        <v>14963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1611385056377216</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07364572851238937</v>
+        <v>0.06744542657637384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3018240482608102</v>
+        <v>0.3191122609979409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2079,19 +2079,19 @@
         <v>16754</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10172</v>
+        <v>9855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25409</v>
+        <v>25360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09542088361949214</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05793720344230395</v>
+        <v>0.05612660987075634</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1447171970086764</v>
+        <v>0.1444355781732428</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>17504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11428</v>
+        <v>11501</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24058</v>
+        <v>24734</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3291891416823869</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2149277063112813</v>
+        <v>0.2162870313347801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4524458126468131</v>
+        <v>0.4651576662996136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2207,7 +2207,7 @@
         <v>842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5522</v>
+        <v>4713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4084377477204011</v>
@@ -2216,7 +2216,7 @@
         <v>0.1278981613113993</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8384983637845267</v>
+        <v>0.7156583536262727</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2225,19 +2225,19 @@
         <v>20194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13810</v>
+        <v>13516</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27210</v>
+        <v>27727</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3379218647894826</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2311034562338284</v>
+        <v>0.2261865648003325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4553439825115758</v>
+        <v>0.4639905831071656</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>31419</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24694</v>
+        <v>23621</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37933</v>
+        <v>37633</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5908810686582936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4644091053850259</v>
+        <v>0.4442352643905746</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7133921239416149</v>
+        <v>0.7077517293119892</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>2963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5713</v>
+        <v>5684</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4499057541516552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1412170177335384</v>
+        <v>0.1404090384377567</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8675106315849608</v>
+        <v>0.8631086850225358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2296,19 +2296,19 @@
         <v>34382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26120</v>
+        <v>27095</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41137</v>
+        <v>41051</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5753464309142347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4371012235186072</v>
+        <v>0.4534131943520933</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6883900708963128</v>
+        <v>0.686954974723043</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>4250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1626</v>
+        <v>1650</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9520</v>
+        <v>8834</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07992978965931943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03058585830895769</v>
+        <v>0.03102883680740715</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1790354487259247</v>
+        <v>0.1661278600641789</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3745</v>
+        <v>4042</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1416564981279436</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5687649013122943</v>
+        <v>0.6138016605011201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2367,19 +2367,19 @@
         <v>5183</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2409</v>
+        <v>1749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10931</v>
+        <v>10632</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08673170429628278</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04030826213364803</v>
+        <v>0.02926263647360745</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1829246568041639</v>
+        <v>0.1779203963002889</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>13974</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9243</v>
+        <v>9302</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17982</v>
+        <v>18754</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6168501540325978</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4080085304265687</v>
+        <v>0.4106134804363024</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7937837586174782</v>
+        <v>0.8278356977997576</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2513,19 +2513,19 @@
         <v>15098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9842</v>
+        <v>9782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20125</v>
+        <v>20209</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5532985514313976</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3606567785411437</v>
+        <v>0.358486390134252</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7374860439945706</v>
+        <v>0.7405809009750105</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>7861</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3983</v>
+        <v>3220</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12571</v>
+        <v>12459</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3470093710877166</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1758165301049555</v>
+        <v>0.1421384682006464</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5549197555666315</v>
+        <v>0.5499734053463083</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2584,19 +2584,19 @@
         <v>10297</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5699</v>
+        <v>5235</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15940</v>
+        <v>15941</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3773557500194372</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2088576001813187</v>
+        <v>0.1918430077164975</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5841537690164337</v>
+        <v>0.5841843350285151</v>
       </c>
     </row>
     <row r="30">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5443</v>
+        <v>3552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03614047487968568</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2402517383176491</v>
+        <v>0.1567977482752647</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6033</v>
+        <v>5882</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06934569854916521</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2210942998196957</v>
+        <v>0.2155404417801879</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>215817</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>188295</v>
+        <v>191020</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>244337</v>
+        <v>246475</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1560027249101229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1361079951544549</v>
+        <v>0.1380782491001688</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.176617771923253</v>
+        <v>0.1781636123130676</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>152</v>
@@ -2780,19 +2780,19 @@
         <v>159958</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>138411</v>
+        <v>138421</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>183632</v>
+        <v>186369</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1852803045199973</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1603226508291286</v>
+        <v>0.1603337361530417</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2127017059751829</v>
+        <v>0.2158721928232974</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>362</v>
@@ -2801,19 +2801,19 @@
         <v>375775</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>342575</v>
+        <v>342071</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>413126</v>
+        <v>414131</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1672528496111313</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1524756991822979</v>
+        <v>0.1522513737518</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1838772078987084</v>
+        <v>0.1843246893033011</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>975027</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>940013</v>
+        <v>941953</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1012426</v>
+        <v>1008213</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7047943714214205</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.679484780146253</v>
+        <v>0.6808873783169015</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.731828099155324</v>
+        <v>0.7287833517273493</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>515</v>
@@ -2851,19 +2851,19 @@
         <v>526495</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>497754</v>
+        <v>498812</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>551490</v>
+        <v>556491</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6098417386294808</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5765507574094</v>
+        <v>0.5777763322570553</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6387941739296521</v>
+        <v>0.644586220297986</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1468</v>
@@ -2872,19 +2872,19 @@
         <v>1501521</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1453754</v>
+        <v>1455509</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1544666</v>
+        <v>1547988</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6683081258426329</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6470475921271874</v>
+        <v>0.6478287580209584</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6875113537488036</v>
+        <v>0.6889897188962755</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>192576</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>168027</v>
+        <v>166248</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>219543</v>
+        <v>220423</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1392029036684565</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1214580129406926</v>
+        <v>0.1201719894130831</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1586960053155585</v>
+        <v>0.1593316063980911</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>178</v>
@@ -2922,19 +2922,19 @@
         <v>176877</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>155483</v>
+        <v>154123</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>202435</v>
+        <v>200972</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.204877956850522</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1800964439960327</v>
+        <v>0.1785216306458563</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2344816075500193</v>
+        <v>0.2327874657376076</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>362</v>
@@ -2943,19 +2943,19 @@
         <v>369453</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>335495</v>
+        <v>334654</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>404797</v>
+        <v>404464</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1644390245462358</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1493246499780266</v>
+        <v>0.1489500421922199</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1801699951788216</v>
+        <v>0.1800216575865614</v>
       </c>
     </row>
     <row r="35">
@@ -3290,19 +3290,19 @@
         <v>45711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34766</v>
+        <v>34600</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57725</v>
+        <v>57571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2767938806843202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2105160377662406</v>
+        <v>0.2095136376849556</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3495412361691902</v>
+        <v>0.3486081114984017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -3311,19 +3311,19 @@
         <v>35060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24807</v>
+        <v>25617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46114</v>
+        <v>47350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2366174738740122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1674169548344587</v>
+        <v>0.1728849667070532</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3112217860678392</v>
+        <v>0.3195616461986303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -3332,19 +3332,19 @@
         <v>80771</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66640</v>
+        <v>65754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97702</v>
+        <v>98231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2577938590253963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2126914473002476</v>
+        <v>0.2098637253678161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3118302933341885</v>
+        <v>0.3135183588615009</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>81382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69146</v>
+        <v>67511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>93206</v>
+        <v>93013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.492790078059876</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4186959869714099</v>
+        <v>0.4087988200864619</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5643859069797093</v>
+        <v>0.5632228967651531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -3382,19 +3382,19 @@
         <v>69257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57736</v>
+        <v>56938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82766</v>
+        <v>81559</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4674073058169074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3896567035546918</v>
+        <v>0.3842699299885823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5585801791358145</v>
+        <v>0.5504371523009148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -3403,19 +3403,19 @@
         <v>150638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134295</v>
+        <v>131909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169544</v>
+        <v>167113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4807861867050074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4286225595223246</v>
+        <v>0.4210065697929851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5411255670933232</v>
+        <v>0.5333679041164677</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>38052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27676</v>
+        <v>28213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49575</v>
+        <v>49792</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2304160412558039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1675876340473949</v>
+        <v>0.1708387020020128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3001936147186487</v>
+        <v>0.3015074789096803</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -3453,19 +3453,19 @@
         <v>43855</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32836</v>
+        <v>33183</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55219</v>
+        <v>56439</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2959752203090804</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2216085814639886</v>
+        <v>0.2239474048971039</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3726664870909339</v>
+        <v>0.3809018786274708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>81</v>
@@ -3474,19 +3474,19 @@
         <v>81907</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68294</v>
+        <v>67360</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98690</v>
+        <v>97442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2614199542695962</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2179720186369437</v>
+        <v>0.2149908472055222</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3149837789185498</v>
+        <v>0.3110027948580716</v>
       </c>
     </row>
     <row r="7">
@@ -3578,19 +3578,19 @@
         <v>101245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83507</v>
+        <v>84483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>118830</v>
+        <v>119307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2899654006528727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2391636349624112</v>
+        <v>0.2419582682893205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3403260975031298</v>
+        <v>0.3416945288086715</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -3599,19 +3599,19 @@
         <v>75393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62076</v>
+        <v>60798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92924</v>
+        <v>90078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3033502632036073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2497669528828202</v>
+        <v>0.2446264325732445</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.373888425296275</v>
+        <v>0.3624373284538305</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>166</v>
@@ -3620,19 +3620,19 @@
         <v>176638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>154804</v>
+        <v>153625</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199948</v>
+        <v>200047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2955310772320076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2590004086327792</v>
+        <v>0.2570286696293498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3345303094622743</v>
+        <v>0.3346969354135084</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>188034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>167604</v>
+        <v>170431</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>208431</v>
+        <v>208463</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5385265807177646</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.480013842861899</v>
+        <v>0.4881115267246516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5969421157731376</v>
+        <v>0.597034581466699</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>114</v>
@@ -3670,19 +3670,19 @@
         <v>121580</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>104917</v>
+        <v>106004</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>137780</v>
+        <v>137911</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4891891980520066</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4221440051314074</v>
+        <v>0.4265168228717393</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5543692637564351</v>
+        <v>0.5548969453236937</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>299</v>
@@ -3691,19 +3691,19 @@
         <v>309614</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>285161</v>
+        <v>284554</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>335784</v>
+        <v>333641</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5180111727979759</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4771002732499639</v>
+        <v>0.4760845602240652</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5617968426324103</v>
+        <v>0.5582112827376873</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>59884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46209</v>
+        <v>46379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75071</v>
+        <v>76166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1715080186293627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1323407979716355</v>
+        <v>0.1328277418472539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2150017960325479</v>
+        <v>0.218136950189858</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3741,19 +3741,19 @@
         <v>51561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37816</v>
+        <v>40067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64763</v>
+        <v>66916</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2074605387443862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1521574471953879</v>
+        <v>0.1612115711621608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2605809689401536</v>
+        <v>0.2692447984831193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -3762,19 +3762,19 @@
         <v>111445</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92685</v>
+        <v>93499</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130784</v>
+        <v>133499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1864577499700166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1550696513254466</v>
+        <v>0.1564322655239505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2188135547035943</v>
+        <v>0.223355998762015</v>
       </c>
     </row>
     <row r="11">
@@ -3866,19 +3866,19 @@
         <v>82567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68539</v>
+        <v>68215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101833</v>
+        <v>100878</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2545492156519353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2113012385423598</v>
+        <v>0.2103011563762812</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3139434828995536</v>
+        <v>0.3110014247894416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -3887,19 +3887,19 @@
         <v>59643</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47163</v>
+        <v>46861</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73995</v>
+        <v>73389</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2402633480324121</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1899903663497371</v>
+        <v>0.1887751928405273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2980784821551258</v>
+        <v>0.2956375591337165</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -3908,19 +3908,19 @@
         <v>142210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>121027</v>
+        <v>121487</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>163499</v>
+        <v>165751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2483559248935215</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2113610288950041</v>
+        <v>0.2121644050640736</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.285534735292265</v>
+        <v>0.2894683827693607</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>183660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>164211</v>
+        <v>165590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201771</v>
+        <v>200894</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5662126312553134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5062531521092954</v>
+        <v>0.5105026120406184</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6220475093851028</v>
+        <v>0.6193429200723544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -3958,19 +3958,19 @@
         <v>131748</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116309</v>
+        <v>116384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148499</v>
+        <v>147609</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5307298648919955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4685347076491559</v>
+        <v>0.4688369572393511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5982082575354279</v>
+        <v>0.5946261950445962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -3979,19 +3979,19 @@
         <v>315409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>288475</v>
+        <v>290182</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>339596</v>
+        <v>341488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5508299401333144</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5037927390666473</v>
+        <v>0.5067735338821339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5930710677497132</v>
+        <v>0.5963751027803686</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>58139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44048</v>
+        <v>45245</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73829</v>
+        <v>74928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1792381530927514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1357962576781716</v>
+        <v>0.1394868697695081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.227608788426573</v>
+        <v>0.2309991007093031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -4029,19 +4029,19 @@
         <v>56848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42349</v>
+        <v>43523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71587</v>
+        <v>71702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2290067870755924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1705993036106064</v>
+        <v>0.1753273194245489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2883781495355749</v>
+        <v>0.2888417950755009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -4050,19 +4050,19 @@
         <v>114987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95545</v>
+        <v>95671</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138534</v>
+        <v>136011</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2008141349731641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1668607841241636</v>
+        <v>0.1670804360464553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.241935165404596</v>
+        <v>0.2375290593652419</v>
       </c>
     </row>
     <row r="15">
@@ -4154,19 +4154,19 @@
         <v>80575</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64681</v>
+        <v>65678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97520</v>
+        <v>98125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2879929333860679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2311836520092079</v>
+        <v>0.2347458559392256</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3485555598830555</v>
+        <v>0.3507193351053388</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -4175,19 +4175,19 @@
         <v>59692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46733</v>
+        <v>45665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75435</v>
+        <v>73981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2482345448958556</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1943450932241996</v>
+        <v>0.1899022737215124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3137045204704598</v>
+        <v>0.3076592556126639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -4196,19 +4196,19 @@
         <v>140267</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119973</v>
+        <v>118203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162865</v>
+        <v>160835</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2696161080686026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2306069130578415</v>
+        <v>0.2272051033663163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3130530777556043</v>
+        <v>0.3091516762782044</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>163738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145126</v>
+        <v>145133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181809</v>
+        <v>180567</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5852336565712092</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5187125204486096</v>
+        <v>0.5187352505447269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6498237776820852</v>
+        <v>0.6453842552836864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -4246,19 +4246,19 @@
         <v>135952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119544</v>
+        <v>119685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152341</v>
+        <v>152824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5653729640748796</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4971362447238334</v>
+        <v>0.497723875163915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6335263781802298</v>
+        <v>0.6355350375447862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>261</v>
@@ -4267,19 +4267,19 @@
         <v>299690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>272821</v>
+        <v>276633</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321909</v>
+        <v>324044</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5760537956525809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.524407016313773</v>
+        <v>0.5317343134382126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6187619906030908</v>
+        <v>0.622866343273614</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>35469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24688</v>
+        <v>24909</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51021</v>
+        <v>50458</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1267734100427229</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08824172600196471</v>
+        <v>0.08902828244409743</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1823594174644364</v>
+        <v>0.1803470211699041</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -4317,19 +4317,19 @@
         <v>44821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32685</v>
+        <v>32462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57903</v>
+        <v>58661</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1863924910292648</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.135922075179071</v>
+        <v>0.1349962501109616</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2407941045655248</v>
+        <v>0.2439474586709939</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>68</v>
@@ -4338,19 +4338,19 @@
         <v>80290</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63302</v>
+        <v>63912</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99413</v>
+        <v>97854</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1543300962788166</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1216764395613496</v>
+        <v>0.1228487415027272</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1910875566956331</v>
+        <v>0.1880915252288026</v>
       </c>
     </row>
     <row r="19">
@@ -4442,19 +4442,19 @@
         <v>54031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41404</v>
+        <v>41120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65685</v>
+        <v>65622</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3455370483081112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2647830162156886</v>
+        <v>0.2629688495114787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.420062872102848</v>
+        <v>0.4196596348998379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -4463,19 +4463,19 @@
         <v>17872</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11145</v>
+        <v>10721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26428</v>
+        <v>25896</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2634921468117514</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1643117159433097</v>
+        <v>0.1580642118297583</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3896303403895478</v>
+        <v>0.3817874673332929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -4484,19 +4484,19 @@
         <v>71904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58227</v>
+        <v>58869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86229</v>
+        <v>86075</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3207152495276933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.259712474077641</v>
+        <v>0.2625766093606426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3846120707238363</v>
+        <v>0.3839259623736243</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>87209</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74643</v>
+        <v>75012</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100901</v>
+        <v>101337</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5577133222220121</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4773535191277335</v>
+        <v>0.4797142025653876</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6452737211188498</v>
+        <v>0.6480650207992733</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -4534,19 +4534,19 @@
         <v>44679</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35425</v>
+        <v>35960</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52139</v>
+        <v>52416</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6586959993506953</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5222710538850139</v>
+        <v>0.5301613174319277</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7686780309627957</v>
+        <v>0.7727633006177569</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>117</v>
@@ -4555,19 +4555,19 @@
         <v>131888</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>116479</v>
+        <v>116988</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147393</v>
+        <v>145703</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5882645404729999</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5195346803265714</v>
+        <v>0.5218058083458437</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6574232687139837</v>
+        <v>0.6498852208433596</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>15129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8684</v>
+        <v>8585</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24520</v>
+        <v>24750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09674962946987671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05553283120206116</v>
+        <v>0.0549049111894884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1568111889068979</v>
+        <v>0.1582780219914748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4605,19 +4605,19 @@
         <v>5278</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2071</v>
+        <v>2078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11430</v>
+        <v>11632</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07781185383755329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03052535833750795</v>
+        <v>0.03063931320792491</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1685192568232579</v>
+        <v>0.1714854189049032</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4626,19 +4626,19 @@
         <v>20407</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10923</v>
+        <v>12803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29863</v>
+        <v>31107</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09102020999930681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04872092964407977</v>
+        <v>0.05710620572863542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1331987873092426</v>
+        <v>0.1387469841195343</v>
       </c>
     </row>
     <row r="23">
@@ -4730,19 +4730,19 @@
         <v>25609</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18026</v>
+        <v>17678</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33681</v>
+        <v>33436</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4996553644821569</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3516931396449011</v>
+        <v>0.3449134054995434</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6571311192423989</v>
+        <v>0.6523563089412986</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4751,19 +4751,19 @@
         <v>7505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3001</v>
+        <v>3223</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12257</v>
+        <v>12337</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3949300157127452</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1579458182567146</v>
+        <v>0.1696155141609009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6450260656227486</v>
+        <v>0.6492265367838151</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -4772,19 +4772,19 @@
         <v>33114</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23774</v>
+        <v>24132</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41520</v>
+        <v>42778</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4713298015370861</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3383820812013167</v>
+        <v>0.3434782297500608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5909684714377361</v>
+        <v>0.6088836033040421</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>18585</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11392</v>
+        <v>11606</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26173</v>
+        <v>26341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3625963825980965</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2222708523921211</v>
+        <v>0.2264423950862988</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5106551033797744</v>
+        <v>0.5139223755756669</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4822,19 +4822,19 @@
         <v>8851</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4422</v>
+        <v>4648</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13405</v>
+        <v>13932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4657587278787406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2326808395126582</v>
+        <v>0.2445796143864671</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7054049403009165</v>
+        <v>0.7331301709703132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -4843,19 +4843,19 @@
         <v>27435</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19846</v>
+        <v>19118</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36150</v>
+        <v>36606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3904991925590551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2824765241138263</v>
+        <v>0.2721161871759523</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5145346647456828</v>
+        <v>0.5210342465513296</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>7060</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2055</v>
+        <v>2234</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14702</v>
+        <v>14463</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1377482529197466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04009508358768527</v>
+        <v>0.04359095387278609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2868363431385416</v>
+        <v>0.2821733324501016</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8005</v>
+        <v>8611</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1393112564085142</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4212744843389117</v>
+        <v>0.4531620311647455</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4914,19 +4914,19 @@
         <v>9707</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4085</v>
+        <v>4364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17862</v>
+        <v>19019</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1381710059038588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05814016693002423</v>
+        <v>0.06211539597806581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2542447031100895</v>
+        <v>0.2707108093894462</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>16323</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10507</v>
+        <v>11104</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21601</v>
+        <v>21680</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6033820347348968</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3884002678812217</v>
+        <v>0.4104842536748294</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7984907446614858</v>
+        <v>0.8014288487182104</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5060,19 +5060,19 @@
         <v>19346</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12620</v>
+        <v>12938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25007</v>
+        <v>24659</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6224617013389856</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4060438555223168</v>
+        <v>0.4162919890840356</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8046157835948345</v>
+        <v>0.7934005966396361</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>7568</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3321</v>
+        <v>3217</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13047</v>
+        <v>12897</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2797591382603987</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1227768013484839</v>
+        <v>0.1189240797735178</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4823079971071002</v>
+        <v>0.4767618414835133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5123,19 +5123,19 @@
         <v>7568</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2922</v>
+        <v>3472</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13615</v>
+        <v>13611</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2434969210536215</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09403027776845135</v>
+        <v>0.111707965930182</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4380535733418022</v>
+        <v>0.4379367811409701</v>
       </c>
     </row>
     <row r="30">
@@ -5152,19 +5152,19 @@
         <v>3161</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>845</v>
+        <v>792</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7854</v>
+        <v>8490</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1168588270047045</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03123546338541101</v>
+        <v>0.02926807430150907</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2903123579285722</v>
+        <v>0.3138359309784349</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -5194,19 +5194,19 @@
         <v>4166</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1031</v>
+        <v>1082</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9031</v>
+        <v>8877</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.134041377607393</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03318690044884347</v>
+        <v>0.03482899977178915</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2905751843513159</v>
+        <v>0.2856299323069906</v>
       </c>
     </row>
     <row r="31">
@@ -5298,19 +5298,19 @@
         <v>406062</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>372483</v>
+        <v>366215</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>442984</v>
+        <v>438450</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3000905972334366</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2752750337473396</v>
+        <v>0.270642366018523</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3273768866232208</v>
+        <v>0.3240257561695226</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>237</v>
@@ -5319,19 +5319,19 @@
         <v>258188</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>230494</v>
+        <v>229660</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>287959</v>
+        <v>285997</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2644639569567376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2360961339416115</v>
+        <v>0.2352426229173227</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2949585368991613</v>
+        <v>0.2929482519259787</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>612</v>
@@ -5340,19 +5340,19 @@
         <v>664250</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>619915</v>
+        <v>619482</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>708446</v>
+        <v>708477</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.285159203998241</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2661262231909438</v>
+        <v>0.2659401857350793</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3041319435156949</v>
+        <v>0.3041453273482898</v>
       </c>
     </row>
     <row r="33">
@@ -5369,19 +5369,19 @@
         <v>730176</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>693274</v>
+        <v>691176</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>765869</v>
+        <v>770470</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5396189194697202</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5123473068250998</v>
+        <v>0.5107973233466294</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5659974173578577</v>
+        <v>0.5693977835625742</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>472</v>
@@ -5390,19 +5390,19 @@
         <v>512066</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>479274</v>
+        <v>479421</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>543907</v>
+        <v>544640</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5245129264439902</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4909233036461051</v>
+        <v>0.4910745978839425</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5571274376556867</v>
+        <v>0.5578782196150346</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1163</v>
@@ -5411,19 +5411,19 @@
         <v>1242242</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1191637</v>
+        <v>1184173</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1294105</v>
+        <v>1287044</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.533287884033218</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5115632815575238</v>
+        <v>0.5083591757832555</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5555523281187997</v>
+        <v>0.5525213392241209</v>
       </c>
     </row>
     <row r="34">
@@ -5440,19 +5440,19 @@
         <v>216894</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>189086</v>
+        <v>190283</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>245285</v>
+        <v>246359</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1602904832968432</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1397395109932186</v>
+        <v>0.1406239536732701</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1812720524886706</v>
+        <v>0.1820658060043867</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>189</v>
@@ -5461,19 +5461,19 @@
         <v>206016</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>181441</v>
+        <v>181159</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>232026</v>
+        <v>233668</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2110231165992723</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1858507551635206</v>
+        <v>0.1855624688247544</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2376659511400016</v>
+        <v>0.2393476775645219</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>391</v>
@@ -5482,19 +5482,19 @@
         <v>422910</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>385532</v>
+        <v>385854</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>462797</v>
+        <v>461350</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.181552911968541</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1655066535796891</v>
+        <v>0.1656449182642601</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1986763157943169</v>
+        <v>0.1980551751417585</v>
       </c>
     </row>
     <row r="35">
@@ -5829,19 +5829,19 @@
         <v>27049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18007</v>
+        <v>18414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36519</v>
+        <v>37539</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1900787070691482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1265379829706332</v>
+        <v>0.1294025494049456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2566303552509426</v>
+        <v>0.2638005786923754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -5850,19 +5850,19 @@
         <v>21728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13815</v>
+        <v>14423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30593</v>
+        <v>30411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2079281554804986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1322006293953503</v>
+        <v>0.1380161711326949</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2927576759216706</v>
+        <v>0.2910153934439199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -5871,19 +5871,19 @@
         <v>48777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37873</v>
+        <v>36312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63262</v>
+        <v>61654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1976364133005971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1534569032077617</v>
+        <v>0.1471288861995297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2563282854763999</v>
+        <v>0.2498117232897765</v>
       </c>
     </row>
     <row r="5">
@@ -5900,19 +5900,19 @@
         <v>90343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76647</v>
+        <v>78041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100732</v>
+        <v>101780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6348650268809584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5386214584142109</v>
+        <v>0.5484191334684263</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7078760733776281</v>
+        <v>0.7152418914965908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -5921,19 +5921,19 @@
         <v>66070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55811</v>
+        <v>55849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74440</v>
+        <v>74889</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6322589230268593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5340841966760624</v>
+        <v>0.5344437447748662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7123476044332012</v>
+        <v>0.7166437051823121</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -5942,19 +5942,19 @@
         <v>156413</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141802</v>
+        <v>141644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172339</v>
+        <v>171510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6337615660409358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5745601504048055</v>
+        <v>0.57392094644626</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6982908993167027</v>
+        <v>0.6949315399695754</v>
       </c>
     </row>
     <row r="6">
@@ -5971,19 +5971,19 @@
         <v>24911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16085</v>
+        <v>17088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34262</v>
+        <v>35025</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1750562660498934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1130319086827272</v>
+        <v>0.1200806047817665</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.240771000437286</v>
+        <v>0.246128760259486</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -5992,19 +5992,19 @@
         <v>16700</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10054</v>
+        <v>10280</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25424</v>
+        <v>26503</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1598129214926421</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09620988878642382</v>
+        <v>0.09837010555417428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2432988447117717</v>
+        <v>0.2536194780578926</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -6013,19 +6013,19 @@
         <v>41611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30061</v>
+        <v>30527</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54094</v>
+        <v>54050</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.168602020658467</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1218031428554733</v>
+        <v>0.1236908300064245</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2191798532653209</v>
+        <v>0.2190019810430454</v>
       </c>
     </row>
     <row r="7">
@@ -6117,19 +6117,19 @@
         <v>58431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45937</v>
+        <v>45627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74594</v>
+        <v>75020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2238019438171454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1759472267504586</v>
+        <v>0.1747630947462727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2857126838558732</v>
+        <v>0.2873414761571732</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -6138,19 +6138,19 @@
         <v>53752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42124</v>
+        <v>42573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66434</v>
+        <v>66145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2534245533370081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1986002201384065</v>
+        <v>0.2007172022925117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3132145417782469</v>
+        <v>0.3118522666555788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -6159,19 +6159,19 @@
         <v>112183</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94937</v>
+        <v>95129</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130847</v>
+        <v>132121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2370801391259335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2006338629822389</v>
+        <v>0.2010395636148205</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2765228166090213</v>
+        <v>0.2792162973420113</v>
       </c>
     </row>
     <row r="9">
@@ -6188,19 +6188,19 @@
         <v>170326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>153852</v>
+        <v>153069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186509</v>
+        <v>185574</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6523858398646318</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5892877755278254</v>
+        <v>0.5862879891675016</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7143696286923696</v>
+        <v>0.7107882876162527</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>137</v>
@@ -6209,19 +6209,19 @@
         <v>132379</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>118981</v>
+        <v>117955</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>144486</v>
+        <v>145580</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.624127845618809</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5609591813873809</v>
+        <v>0.556120377976882</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6812068706053696</v>
+        <v>0.6863651352917454</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>299</v>
@@ -6230,19 +6230,19 @@
         <v>302706</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>279949</v>
+        <v>280374</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>322446</v>
+        <v>321416</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6397193269303458</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5916253748526206</v>
+        <v>0.5925246646345678</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6814351944671984</v>
+        <v>0.6792601072437662</v>
       </c>
     </row>
     <row r="10">
@@ -6259,19 +6259,19 @@
         <v>32325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21327</v>
+        <v>22847</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43203</v>
+        <v>44043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1238122163182227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08168759674448003</v>
+        <v>0.08750929171748442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1654780319338143</v>
+        <v>0.1686927314887756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6280,19 +6280,19 @@
         <v>25972</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17890</v>
+        <v>18010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37161</v>
+        <v>35213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1224476010441829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08434423360656994</v>
+        <v>0.08491213231458906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.175201601636051</v>
+        <v>0.1660178161645066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -6301,19 +6301,19 @@
         <v>58297</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46012</v>
+        <v>45991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75225</v>
+        <v>75584</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1232005339437207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09723951848280483</v>
+        <v>0.09719423739930196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1589756133186764</v>
+        <v>0.1597333355236585</v>
       </c>
     </row>
     <row r="11">
@@ -6405,19 +6405,19 @@
         <v>56416</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43900</v>
+        <v>44189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70667</v>
+        <v>71354</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2136264166055601</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1662334851239302</v>
+        <v>0.1673276434788838</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2675897876707435</v>
+        <v>0.2701935343268519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6426,19 +6426,19 @@
         <v>33653</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24283</v>
+        <v>24320</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45588</v>
+        <v>46055</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1545547836365219</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.111522700621719</v>
+        <v>0.111695018211319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2093676536074774</v>
+        <v>0.2115158164830655</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -6447,19 +6447,19 @@
         <v>90069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73010</v>
+        <v>73332</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108365</v>
+        <v>108062</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1869315730785221</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1515275080042479</v>
+        <v>0.1521962059269272</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2249042751067285</v>
+        <v>0.2242748108732012</v>
       </c>
     </row>
     <row r="13">
@@ -6476,19 +6476,19 @@
         <v>177204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161729</v>
+        <v>159434</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191614</v>
+        <v>191850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.671009171874836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.612409574848287</v>
+        <v>0.603718753751022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7255736422214426</v>
+        <v>0.7264695144262134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -6497,19 +6497,19 @@
         <v>156852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143755</v>
+        <v>143677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168744</v>
+        <v>170046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7203632068480001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6602129593951879</v>
+        <v>0.6598576166066757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7749775631760891</v>
+        <v>0.7809568246598735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>331</v>
@@ -6518,19 +6518,19 @@
         <v>334057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311311</v>
+        <v>312382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>354437</v>
+        <v>356202</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6933125715747754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6461061704616398</v>
+        <v>0.6483285271286319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.735611304133734</v>
+        <v>0.7392741136813458</v>
       </c>
     </row>
     <row r="14">
@@ -6547,19 +6547,19 @@
         <v>30466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21602</v>
+        <v>21046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42812</v>
+        <v>42858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1153644115196039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08180027637897715</v>
+        <v>0.07969271810759822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1621128203587552</v>
+        <v>0.1622892949882633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -6568,19 +6568,19 @@
         <v>27235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18184</v>
+        <v>17983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37298</v>
+        <v>38439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1250820095154779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08351382623405232</v>
+        <v>0.08258738665999873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1712940220010181</v>
+        <v>0.1765378766967039</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -6589,19 +6589,19 @@
         <v>57702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45423</v>
+        <v>44221</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73895</v>
+        <v>73510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1197558553467025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09427173254949343</v>
+        <v>0.09177713247636059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1533646616769396</v>
+        <v>0.1525649465294565</v>
       </c>
     </row>
     <row r="15">
@@ -6693,19 +6693,19 @@
         <v>51731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39302</v>
+        <v>38827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65201</v>
+        <v>66219</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1875822133663756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1425147077914998</v>
+        <v>0.1407909390844956</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2364266605818763</v>
+        <v>0.2401197189137877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -6714,19 +6714,19 @@
         <v>44992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33460</v>
+        <v>33731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59077</v>
+        <v>58426</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.195780226318001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1455967833264562</v>
+        <v>0.1467787219122754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2570658252100456</v>
+        <v>0.2542330073191221</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -6735,19 +6735,19 @@
         <v>96723</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79617</v>
+        <v>79324</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114774</v>
+        <v>117134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1913085548400328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1574736384549148</v>
+        <v>0.1568939208010814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2270122892117119</v>
+        <v>0.2316784035613974</v>
       </c>
     </row>
     <row r="17">
@@ -6764,19 +6764,19 @@
         <v>189215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>175060</v>
+        <v>174543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204926</v>
+        <v>206833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6861154386485407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6347869132383281</v>
+        <v>0.6329132935919793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7430864248375322</v>
+        <v>0.7499998470758349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -6785,19 +6785,19 @@
         <v>149562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132422</v>
+        <v>132652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164171</v>
+        <v>163562</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6508024374078728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5762194534402897</v>
+        <v>0.5772233658621378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7143749371364883</v>
+        <v>0.7117235649785409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -6806,19 +6806,19 @@
         <v>338776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>318437</v>
+        <v>316523</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362002</v>
+        <v>360583</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6700641952729959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6298363573477515</v>
+        <v>0.6260504568017428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7160039068073678</v>
+        <v>0.7131975726868663</v>
       </c>
     </row>
     <row r="18">
@@ -6835,19 +6835,19 @@
         <v>34831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24044</v>
+        <v>23964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46869</v>
+        <v>48180</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1263023479850837</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08718726401924852</v>
+        <v>0.08689594141235364</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1699535828892854</v>
+        <v>0.1747050017799978</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -6856,19 +6856,19 @@
         <v>35257</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25177</v>
+        <v>25685</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47791</v>
+        <v>48451</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1534173362741262</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1095540467649344</v>
+        <v>0.1117656542921091</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2079567857442693</v>
+        <v>0.2108293293839618</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -6877,19 +6877,19 @@
         <v>70088</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55833</v>
+        <v>54822</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87616</v>
+        <v>88278</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1386272498869714</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1104311345186105</v>
+        <v>0.108431514539648</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1732951956586653</v>
+        <v>0.1746043403089607</v>
       </c>
     </row>
     <row r="19">
@@ -6981,19 +6981,19 @@
         <v>38191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27379</v>
+        <v>27370</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49399</v>
+        <v>49824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2618803563733093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1877402855606763</v>
+        <v>0.1876823257864505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3387372609488537</v>
+        <v>0.3416503513487149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -7002,19 +7002,19 @@
         <v>28994</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20327</v>
+        <v>19474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40008</v>
+        <v>39589</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2541375340114551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1781726705768769</v>
+        <v>0.170696802709024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.350681714318785</v>
+        <v>0.3470091837348035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -7023,19 +7023,19 @@
         <v>67185</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53879</v>
+        <v>52793</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83034</v>
+        <v>83055</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2584817809104994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2072893443543039</v>
+        <v>0.2031121519481969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3194592093884007</v>
+        <v>0.3195389708698889</v>
       </c>
     </row>
     <row r="21">
@@ -7052,19 +7052,19 @@
         <v>93449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>81337</v>
+        <v>81644</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106204</v>
+        <v>105531</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6407972299072116</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5577387308294954</v>
+        <v>0.5598432723944902</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.728256224135252</v>
+        <v>0.7236437882448139</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -7073,19 +7073,19 @@
         <v>72077</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60054</v>
+        <v>60987</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>81884</v>
+        <v>82581</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.631768287149536</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5263914708073494</v>
+        <v>0.5345647792497701</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7177327774837318</v>
+        <v>0.7238393207287652</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>146</v>
@@ -7094,19 +7094,19 @@
         <v>165526</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>148629</v>
+        <v>149504</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>182064</v>
+        <v>180800</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6368341345555053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5718245419451609</v>
+        <v>0.5751934551132953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7004631474904354</v>
+        <v>0.6955994881800033</v>
       </c>
     </row>
     <row r="22">
@@ -7123,19 +7123,19 @@
         <v>14193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7650</v>
+        <v>7835</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22885</v>
+        <v>23021</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09732241371947921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05246002936818387</v>
+        <v>0.0537230077517304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1569277398237913</v>
+        <v>0.1578590735901501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -7144,19 +7144,19 @@
         <v>13017</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6517</v>
+        <v>7322</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21802</v>
+        <v>22537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1140941788390089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05712252973795159</v>
+        <v>0.06417511427222394</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1911029941921336</v>
+        <v>0.1975382763531091</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -7165,19 +7165,19 @@
         <v>27209</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18297</v>
+        <v>18553</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38228</v>
+        <v>38874</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1046840845339953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07039437971869142</v>
+        <v>0.07137880773787161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1470754225503466</v>
+        <v>0.1495618878108062</v>
       </c>
     </row>
     <row r="23">
@@ -7269,19 +7269,19 @@
         <v>16848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10449</v>
+        <v>10742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24239</v>
+        <v>24486</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2893334900444317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1794362681812121</v>
+        <v>0.184464638392037</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4162538351815825</v>
+        <v>0.4204867243316563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -7290,19 +7290,19 @@
         <v>9788</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5140</v>
+        <v>5108</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16099</v>
+        <v>15712</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.325968826536356</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1711920659532709</v>
+        <v>0.1701051374758549</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5361667246251912</v>
+        <v>0.523246113848563</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -7311,19 +7311,19 @@
         <v>26636</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18260</v>
+        <v>19021</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35362</v>
+        <v>35959</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3017975223477239</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2068903120748927</v>
+        <v>0.2155129154751594</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4006660754095991</v>
+        <v>0.4074295132386676</v>
       </c>
     </row>
     <row r="25">
@@ -7340,19 +7340,19 @@
         <v>38239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30496</v>
+        <v>30044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45004</v>
+        <v>45276</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6566676205975256</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5237015153954747</v>
+        <v>0.5159302561164787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7728400814525853</v>
+        <v>0.7775141003643412</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7361,19 +7361,19 @@
         <v>15845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9851</v>
+        <v>10140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21566</v>
+        <v>21467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.527691846110099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3280836751700187</v>
+        <v>0.3376951265112987</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7182155047369297</v>
+        <v>0.7149105082628474</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -7382,19 +7382,19 @@
         <v>54084</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44536</v>
+        <v>45372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62965</v>
+        <v>62930</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6127876300341039</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5046049115285358</v>
+        <v>0.5140746455342593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7134119651552669</v>
+        <v>0.7130114941761383</v>
       </c>
     </row>
     <row r="26">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9247</v>
+        <v>9517</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05399888935804276</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1587982718777367</v>
+        <v>0.1634244423809776</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7432,19 +7432,19 @@
         <v>4394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1101</v>
+        <v>1915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9862</v>
+        <v>10799</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.146339327353545</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03665577772675625</v>
+        <v>0.06378442571247225</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3284217449673354</v>
+        <v>0.3596426140727274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -7453,19 +7453,19 @@
         <v>7539</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3163</v>
+        <v>3210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15149</v>
+        <v>15502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0854148476181722</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03584333311777359</v>
+        <v>0.03636749028830519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1716456072086425</v>
+        <v>0.1756409598139638</v>
       </c>
     </row>
     <row r="27">
@@ -7557,19 +7557,19 @@
         <v>9271</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4962</v>
+        <v>5070</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13348</v>
+        <v>13491</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4026087999848427</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2155061741486015</v>
+        <v>0.2201701823679463</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5796599253139532</v>
+        <v>0.5858837826506328</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -7578,7 +7578,7 @@
         <v>5326</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2529</v>
+        <v>1348</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>8014</v>
@@ -7587,7 +7587,7 @@
         <v>0.6646354146991766</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3155766876396923</v>
+        <v>0.1682504021889253</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>1</v>
@@ -7599,19 +7599,19 @@
         <v>14597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9406</v>
+        <v>9623</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19983</v>
+        <v>20003</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4702576621003921</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3030070919152738</v>
+        <v>0.3099993495840691</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6437646507593586</v>
+        <v>0.6444093067177026</v>
       </c>
     </row>
     <row r="29">
@@ -7628,19 +7628,19 @@
         <v>13756</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9679</v>
+        <v>9536</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18065</v>
+        <v>17957</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5973912000151572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4203400746860468</v>
+        <v>0.4141162173493672</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7844938258513984</v>
+        <v>0.7798298176320537</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5485</v>
+        <v>6666</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3353645853008234</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6844233123603076</v>
+        <v>0.8317495978110747</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -7670,19 +7670,19 @@
         <v>16444</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11058</v>
+        <v>11038</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21635</v>
+        <v>21418</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5297423378996079</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3562353492406413</v>
+        <v>0.3555906932822974</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6969929080847261</v>
+        <v>0.6900006504159309</v>
       </c>
     </row>
     <row r="30">
@@ -7821,19 +7821,19 @@
         <v>257936</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>229315</v>
+        <v>229057</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>286002</v>
+        <v>291214</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2203942122325459</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1959387493780188</v>
+        <v>0.1957186668884082</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2443752048178386</v>
+        <v>0.2488293558788869</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>188</v>
@@ -7842,19 +7842,19 @@
         <v>198234</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>173608</v>
+        <v>175536</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>223720</v>
+        <v>225376</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2163459522732243</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1894704253169231</v>
+        <v>0.1915744612863867</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2441601906057396</v>
+        <v>0.2459677524736186</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>429</v>
@@ -7863,19 +7863,19 @@
         <v>456170</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>416257</v>
+        <v>420308</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>495913</v>
+        <v>496454</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2186165300287617</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.199488723344187</v>
+        <v>0.2014300289402908</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2376631903203724</v>
+        <v>0.237922629191992</v>
       </c>
     </row>
     <row r="33">
@@ -7892,19 +7892,19 @@
         <v>772532</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>741120</v>
+        <v>736147</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>808178</v>
+        <v>806639</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6600927908754385</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6332526443645012</v>
+        <v>0.6290034568280812</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6905509024628296</v>
+        <v>0.689236266012793</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>582</v>
@@ -7913,19 +7913,19 @@
         <v>595473</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>565403</v>
+        <v>565584</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>622618</v>
+        <v>624583</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6498796673799818</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.617062457613841</v>
+        <v>0.6172599531641055</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6795051134616926</v>
+        <v>0.6816492200697272</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1302</v>
@@ -7934,19 +7934,19 @@
         <v>1368005</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1324875</v>
+        <v>1322390</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1410131</v>
+        <v>1411967</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6556079781249339</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6349382494925455</v>
+        <v>0.6337475648389619</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.675796605816517</v>
+        <v>0.6766764080702975</v>
       </c>
     </row>
     <row r="34">
@@ -7963,19 +7963,19 @@
         <v>139871</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>118662</v>
+        <v>118314</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>163676</v>
+        <v>166929</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1195129968920156</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1013912640705089</v>
+        <v>0.1010941237669586</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1398538642634919</v>
+        <v>0.1426328996485722</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>117</v>
@@ -7984,19 +7984,19 @@
         <v>122575</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>102767</v>
+        <v>102798</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>143803</v>
+        <v>143335</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.133774380346794</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1121562418956451</v>
+        <v>0.1121899977753541</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1569419671038547</v>
+        <v>0.1564315514637959</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>244</v>
@@ -8005,19 +8005,19 @@
         <v>262446</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>232399</v>
+        <v>235449</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>291935</v>
+        <v>295250</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1257754918463044</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1113756988683304</v>
+        <v>0.1128376655524191</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1399080449201578</v>
+        <v>0.1414968554986906</v>
       </c>
     </row>
     <row r="35">
